--- a/geoSolutionsTables.xlsx
+++ b/geoSolutionsTables.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Google Drive\geohack\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Arendt\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11620"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Vector" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>data</t>
   </si>
@@ -108,13 +108,19 @@
   </si>
   <si>
     <t>fiona</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Tools / Libraries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +131,22 @@
     <font>
       <sz val="11"/>
       <color theme="4" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -151,13 +173,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,15 +196,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,7 +490,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -482,8 +506,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+      <c r="A1" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
@@ -530,6 +557,9 @@
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="I4" t="s">
         <v>24</v>
       </c>
@@ -629,7 +659,7 @@
       <c r="B23" t="s">
         <v>21</v>
       </c>
-      <c r="G23" s="5"/>
+      <c r="G23" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/geoSolutionsTables.xlsx
+++ b/geoSolutionsTables.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Arendt\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony Arendt\Google Drive\geohack\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -490,7 +490,7 @@
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection sqref="A1:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/geoSolutionsTables.xlsx
+++ b/geoSolutionsTables.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Vector" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Vector!$A$1:$I$23</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -663,6 +666,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>